--- a/result.xlsx
+++ b/result.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -41,12 +41,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,11 +74,10 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +679,7 @@
       <c r="H7" s="2" t="str">
         <v>iRoobsoN</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <v>AugustoX95</v>
       </c>
       <c r="J7" s="2" t="str">
